--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.474535196064465</v>
+        <v>0.09755033333333334</v>
       </c>
       <c r="H2">
-        <v>0.474535196064465</v>
+        <v>0.292651</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1198375636346959</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1198375636346959</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7447737379371751</v>
+        <v>0.8372556666666666</v>
       </c>
       <c r="N2">
-        <v>0.7447737379371751</v>
+        <v>2.511767</v>
       </c>
       <c r="O2">
-        <v>0.05229850941404422</v>
+        <v>0.04323017762831461</v>
       </c>
       <c r="P2">
-        <v>0.05229850941404422</v>
+        <v>0.04323017762831462</v>
       </c>
       <c r="Q2">
-        <v>0.3534213517556818</v>
+        <v>0.08167456936855555</v>
       </c>
       <c r="R2">
-        <v>0.3534213517556818</v>
+        <v>0.7350711243169999</v>
       </c>
       <c r="S2">
-        <v>0.05229850941404422</v>
+        <v>0.005180599162472359</v>
       </c>
       <c r="T2">
-        <v>0.05229850941404422</v>
+        <v>0.005180599162472359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,433 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H3">
+        <v>0.292651</v>
+      </c>
+      <c r="I3">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="J3">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.110372</v>
+      </c>
+      <c r="N3">
+        <v>0.331116</v>
+      </c>
+      <c r="O3">
+        <v>0.005698858013333649</v>
+      </c>
+      <c r="P3">
+        <v>0.00569885801333365</v>
+      </c>
+      <c r="Q3">
+        <v>0.01076682539066666</v>
+      </c>
+      <c r="R3">
+        <v>0.09690142851599999</v>
+      </c>
+      <c r="S3">
+        <v>0.0006829372598179678</v>
+      </c>
+      <c r="T3">
+        <v>0.0006829372598179679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.292651</v>
+      </c>
+      <c r="I4">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="J4">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.042347</v>
+      </c>
+      <c r="O4">
+        <v>0.0007288368435552497</v>
+      </c>
+      <c r="P4">
+        <v>0.0007288368435552499</v>
+      </c>
+      <c r="Q4">
+        <v>0.001376987988555556</v>
+      </c>
+      <c r="R4">
+        <v>0.012392891897</v>
+      </c>
+      <c r="S4">
+        <v>8.734203161886315E-05</v>
+      </c>
+      <c r="T4">
+        <v>8.734203161886316E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.292651</v>
+      </c>
+      <c r="I5">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="J5">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.474535196064465</v>
-      </c>
-      <c r="H3">
-        <v>0.474535196064465</v>
-      </c>
-      <c r="I3">
+      <c r="M5">
+        <v>18.40564566666667</v>
+      </c>
+      <c r="N5">
+        <v>55.216937</v>
+      </c>
+      <c r="O5">
+        <v>0.9503421275147964</v>
+      </c>
+      <c r="P5">
+        <v>0.9503421275147965</v>
+      </c>
+      <c r="Q5">
+        <v>1.795476869998556</v>
+      </c>
+      <c r="R5">
+        <v>16.159291829987</v>
+      </c>
+      <c r="S5">
+        <v>0.1138866851807867</v>
+      </c>
+      <c r="T5">
+        <v>0.1138866851807867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="G6">
+        <v>0.716471</v>
+      </c>
+      <c r="H6">
+        <v>2.149413</v>
+      </c>
+      <c r="I6">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J6">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="M6">
+        <v>0.8372556666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.511767</v>
+      </c>
+      <c r="O6">
+        <v>0.04323017762831461</v>
+      </c>
+      <c r="P6">
+        <v>0.04323017762831462</v>
+      </c>
+      <c r="Q6">
+        <v>0.5998694047523333</v>
+      </c>
+      <c r="R6">
+        <v>5.398824642770999</v>
+      </c>
+      <c r="S6">
+        <v>0.03804957846584225</v>
+      </c>
+      <c r="T6">
+        <v>0.03804957846584225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G7">
+        <v>0.716471</v>
+      </c>
+      <c r="H7">
+        <v>2.149413</v>
+      </c>
+      <c r="I7">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J7">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.110372</v>
+      </c>
+      <c r="N7">
+        <v>0.331116</v>
+      </c>
+      <c r="O7">
+        <v>0.005698858013333649</v>
+      </c>
+      <c r="P7">
+        <v>0.00569885801333365</v>
+      </c>
+      <c r="Q7">
+        <v>0.07907833721199999</v>
+      </c>
+      <c r="R7">
+        <v>0.711705034908</v>
+      </c>
+      <c r="S7">
+        <v>0.005015920753515681</v>
+      </c>
+      <c r="T7">
+        <v>0.005015920753515682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>13.4960477746005</v>
-      </c>
-      <c r="N3">
-        <v>13.4960477746005</v>
-      </c>
-      <c r="O3">
-        <v>0.9477014905859558</v>
-      </c>
-      <c r="P3">
-        <v>0.9477014905859558</v>
-      </c>
-      <c r="Q3">
-        <v>6.404349676815435</v>
-      </c>
-      <c r="R3">
-        <v>6.404349676815435</v>
-      </c>
-      <c r="S3">
-        <v>0.9477014905859558</v>
-      </c>
-      <c r="T3">
-        <v>0.9477014905859558</v>
+      <c r="G8">
+        <v>0.716471</v>
+      </c>
+      <c r="H8">
+        <v>2.149413</v>
+      </c>
+      <c r="I8">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J8">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.042347</v>
+      </c>
+      <c r="O8">
+        <v>0.0007288368435552497</v>
+      </c>
+      <c r="P8">
+        <v>0.0007288368435552499</v>
+      </c>
+      <c r="Q8">
+        <v>0.01011346581233333</v>
+      </c>
+      <c r="R8">
+        <v>0.091021192311</v>
+      </c>
+      <c r="S8">
+        <v>0.0006414948119363866</v>
+      </c>
+      <c r="T8">
+        <v>0.0006414948119363867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.716471</v>
+      </c>
+      <c r="H9">
+        <v>2.149413</v>
+      </c>
+      <c r="I9">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J9">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.40564566666667</v>
+      </c>
+      <c r="N9">
+        <v>55.216937</v>
+      </c>
+      <c r="O9">
+        <v>0.9503421275147964</v>
+      </c>
+      <c r="P9">
+        <v>0.9503421275147965</v>
+      </c>
+      <c r="Q9">
+        <v>13.18711135644233</v>
+      </c>
+      <c r="R9">
+        <v>118.684002207981</v>
+      </c>
+      <c r="S9">
+        <v>0.8364554423340097</v>
+      </c>
+      <c r="T9">
+        <v>0.8364554423340097</v>
       </c>
     </row>
   </sheetData>
